--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2277,28 +2277,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>798.6422441382666</v>
+        <v>876.3426438061691</v>
       </c>
       <c r="AB2" t="n">
-        <v>1092.737552039125</v>
+        <v>1199.050666764454</v>
       </c>
       <c r="AC2" t="n">
-        <v>988.4482137392971</v>
+        <v>1084.614954006634</v>
       </c>
       <c r="AD2" t="n">
-        <v>798642.2441382667</v>
+        <v>876342.6438061692</v>
       </c>
       <c r="AE2" t="n">
-        <v>1092737.552039125</v>
+        <v>1199050.666764454</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.588996525897149e-06</v>
+        <v>2.29079974570308e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.12760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>988448.2137392971</v>
+        <v>1084614.954006634</v>
       </c>
     </row>
     <row r="3">
@@ -2383,28 +2383,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>392.7433099050103</v>
+        <v>444.4582653318906</v>
       </c>
       <c r="AB3" t="n">
-        <v>537.368723224018</v>
+        <v>608.1274067418889</v>
       </c>
       <c r="AC3" t="n">
-        <v>486.083006481257</v>
+        <v>550.088580554618</v>
       </c>
       <c r="AD3" t="n">
-        <v>392743.3099050103</v>
+        <v>444458.2653318906</v>
       </c>
       <c r="AE3" t="n">
-        <v>537368.723224018</v>
+        <v>608127.4067418888</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.496514372522703e-06</v>
+        <v>3.599135930451534e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.17447916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>486083.006481257</v>
+        <v>550088.580554618</v>
       </c>
     </row>
     <row r="4">
@@ -2489,28 +2489,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>310.2723874697867</v>
+        <v>361.9872533881161</v>
       </c>
       <c r="AB4" t="n">
-        <v>424.5283687878301</v>
+        <v>495.2869298361525</v>
       </c>
       <c r="AC4" t="n">
-        <v>384.0119771000266</v>
+        <v>448.0174403921612</v>
       </c>
       <c r="AD4" t="n">
-        <v>310272.3874697867</v>
+        <v>361987.2533881161</v>
       </c>
       <c r="AE4" t="n">
-        <v>424528.3687878301</v>
+        <v>495286.9298361525</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.854293013291131e-06</v>
+        <v>4.114932665014917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.64778645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>384011.9771000266</v>
+        <v>448017.4403921612</v>
       </c>
     </row>
     <row r="5">
@@ -2595,28 +2595,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>270.3372865262198</v>
+        <v>321.9668115899775</v>
       </c>
       <c r="AB5" t="n">
-        <v>369.8874018645307</v>
+        <v>440.5291957906553</v>
       </c>
       <c r="AC5" t="n">
-        <v>334.5858673708081</v>
+        <v>398.4857076310039</v>
       </c>
       <c r="AD5" t="n">
-        <v>270337.2865262198</v>
+        <v>321966.8115899775</v>
       </c>
       <c r="AE5" t="n">
-        <v>369887.4018645307</v>
+        <v>440529.1957906553</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.038784295691552e-06</v>
+        <v>4.380907181585178e-06</v>
       </c>
       <c r="AG5" t="n">
         <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>334585.8673708081</v>
+        <v>398485.7076310039</v>
       </c>
     </row>
     <row r="6">
@@ -2701,28 +2701,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>263.6979083344213</v>
+        <v>306.8647473118388</v>
       </c>
       <c r="AB6" t="n">
-        <v>360.8031117138186</v>
+        <v>419.865885189252</v>
       </c>
       <c r="AC6" t="n">
-        <v>326.3685691221987</v>
+        <v>379.79447439226</v>
       </c>
       <c r="AD6" t="n">
-        <v>263697.9083344213</v>
+        <v>306864.7473118388</v>
       </c>
       <c r="AE6" t="n">
-        <v>360803.1117138186</v>
+        <v>419865.885189252</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.082759697518778e-06</v>
+        <v>4.444304953500458e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.860026041666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>326368.5691221987</v>
+        <v>379794.47439226</v>
       </c>
     </row>
   </sheetData>
@@ -2998,28 +2998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>562.6916323862334</v>
+        <v>629.9457694802371</v>
       </c>
       <c r="AB2" t="n">
-        <v>769.8995156336621</v>
+        <v>861.9195930488028</v>
       </c>
       <c r="AC2" t="n">
-        <v>696.4213864223414</v>
+        <v>779.659196799971</v>
       </c>
       <c r="AD2" t="n">
-        <v>562691.6323862334</v>
+        <v>629945.7694802372</v>
       </c>
       <c r="AE2" t="n">
-        <v>769899.5156336621</v>
+        <v>861919.5930488028</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.96078945240204e-06</v>
+        <v>2.870521995470601e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.03515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>696421.3864223413</v>
+        <v>779659.196799971</v>
       </c>
     </row>
     <row r="3">
@@ -3104,28 +3104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>315.3298297263198</v>
+        <v>357.4170370098859</v>
       </c>
       <c r="AB3" t="n">
-        <v>431.4481844018241</v>
+        <v>489.0337581637413</v>
       </c>
       <c r="AC3" t="n">
-        <v>390.2713752238431</v>
+        <v>442.3610626477834</v>
       </c>
       <c r="AD3" t="n">
-        <v>315329.8297263198</v>
+        <v>357417.0370098859</v>
       </c>
       <c r="AE3" t="n">
-        <v>431448.184401824</v>
+        <v>489033.7581637413</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.811904011023132e-06</v>
+        <v>4.116521691253416e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.181640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>390271.3752238431</v>
+        <v>442361.0626477834</v>
       </c>
     </row>
     <row r="4">
@@ -3210,28 +3210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>259.6628837782642</v>
+        <v>301.6647502072587</v>
       </c>
       <c r="AB4" t="n">
-        <v>355.2822131033646</v>
+        <v>412.7510197430842</v>
       </c>
       <c r="AC4" t="n">
-        <v>321.3745773264965</v>
+        <v>373.3586417184979</v>
       </c>
       <c r="AD4" t="n">
-        <v>259662.8837782642</v>
+        <v>301664.7502072587</v>
       </c>
       <c r="AE4" t="n">
-        <v>355282.2131033646</v>
+        <v>412751.0197430842</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.126001213092558e-06</v>
+        <v>4.576348179075217e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.05859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>321374.5773264965</v>
+        <v>373358.641718498</v>
       </c>
     </row>
     <row r="5">
@@ -3316,28 +3316,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>247.9027123054445</v>
+        <v>298.2365719263225</v>
       </c>
       <c r="AB5" t="n">
-        <v>339.191427671944</v>
+        <v>408.0604349785555</v>
       </c>
       <c r="AC5" t="n">
-        <v>306.8194738731933</v>
+        <v>369.1157197806189</v>
       </c>
       <c r="AD5" t="n">
-        <v>247902.7123054445</v>
+        <v>298236.5719263225</v>
       </c>
       <c r="AE5" t="n">
-        <v>339191.427671944</v>
+        <v>408060.4349785555</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.152272565787172e-06</v>
+        <v>4.614808451119353e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.973958333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>306819.4738731933</v>
+        <v>369115.7197806189</v>
       </c>
     </row>
   </sheetData>
@@ -3613,28 +3613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>234.2041200650921</v>
+        <v>273.0406532448453</v>
       </c>
       <c r="AB2" t="n">
-        <v>320.4484094294656</v>
+        <v>373.5862674730765</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.8652629857799</v>
+        <v>337.9317184370648</v>
       </c>
       <c r="AD2" t="n">
-        <v>234204.1200650921</v>
+        <v>273040.6532448453</v>
       </c>
       <c r="AE2" t="n">
-        <v>320448.4094294657</v>
+        <v>373586.2674730765</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.167313574413038e-06</v>
+        <v>4.900225050364419e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.07747395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>289865.2629857799</v>
+        <v>337931.7184370648</v>
       </c>
     </row>
     <row r="3">
@@ -3719,28 +3719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>223.0104359824747</v>
+        <v>269.5288275333449</v>
       </c>
       <c r="AB3" t="n">
-        <v>305.1327170371471</v>
+        <v>368.7812326037857</v>
       </c>
       <c r="AC3" t="n">
-        <v>276.0112787796701</v>
+        <v>333.5852693517903</v>
       </c>
       <c r="AD3" t="n">
-        <v>223010.4359824746</v>
+        <v>269528.8275333449</v>
       </c>
       <c r="AE3" t="n">
-        <v>305132.7170371471</v>
+        <v>368781.2326037857</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.209561666190972e-06</v>
+        <v>4.965588063150007e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.93098958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>276011.2787796701</v>
+        <v>333585.2693517903</v>
       </c>
     </row>
   </sheetData>
@@ -4016,28 +4016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>319.9385542765062</v>
+        <v>367.982096000953</v>
       </c>
       <c r="AB2" t="n">
-        <v>437.7540446539664</v>
+        <v>503.4893379728264</v>
       </c>
       <c r="AC2" t="n">
-        <v>395.9754130238514</v>
+        <v>455.4370222084232</v>
       </c>
       <c r="AD2" t="n">
-        <v>319938.5542765062</v>
+        <v>367982.0960009531</v>
       </c>
       <c r="AE2" t="n">
-        <v>437754.0446539664</v>
+        <v>503489.3379728264</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.689201162185557e-06</v>
+        <v>4.064173496331335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.48046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>395975.4130238515</v>
+        <v>455437.0222084232</v>
       </c>
     </row>
     <row r="3">
@@ -4122,28 +4122,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>232.3774700031268</v>
+        <v>272.399546215832</v>
       </c>
       <c r="AB3" t="n">
-        <v>317.9491062285728</v>
+        <v>372.7090765523346</v>
       </c>
       <c r="AC3" t="n">
-        <v>287.6044897745854</v>
+        <v>337.1382453866534</v>
       </c>
       <c r="AD3" t="n">
-        <v>232377.4700031268</v>
+        <v>272399.546215832</v>
       </c>
       <c r="AE3" t="n">
-        <v>317949.1062285728</v>
+        <v>372709.0765523346</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.23504239186926e-06</v>
+        <v>4.889100054477876e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.37434895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>287604.4897745854</v>
+        <v>337138.2453866533</v>
       </c>
     </row>
   </sheetData>
@@ -4419,28 +4419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.7108224055669</v>
+        <v>269.0636922284165</v>
       </c>
       <c r="AB2" t="n">
-        <v>306.0910166400897</v>
+        <v>368.1448139592613</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.8781196134901</v>
+        <v>333.0095896094801</v>
       </c>
       <c r="AD2" t="n">
-        <v>223710.8224055669</v>
+        <v>269063.6922284165</v>
       </c>
       <c r="AE2" t="n">
-        <v>306091.0166400897</v>
+        <v>368144.8139592613</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.127552895613117e-06</v>
+        <v>4.943059790677539e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.650390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>276878.1196134901</v>
+        <v>333009.5896094802</v>
       </c>
     </row>
   </sheetData>
@@ -4716,28 +4716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>608.4979616424453</v>
+        <v>684.6802646598366</v>
       </c>
       <c r="AB2" t="n">
-        <v>832.5737561546346</v>
+        <v>936.8097440690361</v>
       </c>
       <c r="AC2" t="n">
-        <v>753.1140853918413</v>
+        <v>847.4019369158202</v>
       </c>
       <c r="AD2" t="n">
-        <v>608497.9616424453</v>
+        <v>684680.2646598365</v>
       </c>
       <c r="AE2" t="n">
-        <v>832573.7561546345</v>
+        <v>936809.7440690361</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.860475269261102e-06</v>
+        <v>2.712361385909077e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.748046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>753114.0853918412</v>
+        <v>847401.9369158202</v>
       </c>
     </row>
     <row r="3">
@@ -4822,28 +4822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>331.7842519438945</v>
+        <v>382.4587556579443</v>
       </c>
       <c r="AB3" t="n">
-        <v>453.9618507977854</v>
+        <v>523.2969423806712</v>
       </c>
       <c r="AC3" t="n">
-        <v>410.6363688971031</v>
+        <v>473.3542166517306</v>
       </c>
       <c r="AD3" t="n">
-        <v>331784.2519438945</v>
+        <v>382458.7556579442</v>
       </c>
       <c r="AE3" t="n">
-        <v>453961.8507977854</v>
+        <v>523296.9423806712</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.728065321253829e-06</v>
+        <v>3.97720902710267e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.42252604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>410636.3688971031</v>
+        <v>473354.2166517306</v>
       </c>
     </row>
     <row r="4">
@@ -4928,28 +4928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>270.799430168386</v>
+        <v>313.085092084567</v>
       </c>
       <c r="AB4" t="n">
-        <v>370.5197271840809</v>
+        <v>428.3768353295424</v>
       </c>
       <c r="AC4" t="n">
-        <v>335.1578444493347</v>
+        <v>387.4931513963546</v>
       </c>
       <c r="AD4" t="n">
-        <v>270799.430168386</v>
+        <v>313085.0920845669</v>
       </c>
       <c r="AE4" t="n">
-        <v>370519.7271840809</v>
+        <v>428376.8353295423</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.063270568614655e-06</v>
+        <v>4.465900161200194e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.17252604166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>335157.8444493347</v>
+        <v>387493.1513963545</v>
       </c>
     </row>
     <row r="5">
@@ -5034,28 +5034,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>252.0359728705361</v>
+        <v>302.710387076038</v>
       </c>
       <c r="AB5" t="n">
-        <v>344.8467371236862</v>
+        <v>414.1817062371909</v>
       </c>
       <c r="AC5" t="n">
-        <v>311.9350485281398</v>
+        <v>374.6527855015883</v>
       </c>
       <c r="AD5" t="n">
-        <v>252035.9728705361</v>
+        <v>302710.387076038</v>
       </c>
       <c r="AE5" t="n">
-        <v>344846.7371236862</v>
+        <v>414181.7062371909</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.131900540732792e-06</v>
+        <v>4.565954856559396e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.947916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>311935.0485281398</v>
+        <v>374652.7855015883</v>
       </c>
     </row>
   </sheetData>
@@ -5331,28 +5331,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.7707566985943</v>
+        <v>274.2976772388394</v>
       </c>
       <c r="AB2" t="n">
-        <v>314.3824860852384</v>
+        <v>375.3061831576438</v>
       </c>
       <c r="AC2" t="n">
-        <v>284.3782628519469</v>
+        <v>339.4874877826138</v>
       </c>
       <c r="AD2" t="n">
-        <v>229770.7566985943</v>
+        <v>274297.6772388393</v>
       </c>
       <c r="AE2" t="n">
-        <v>314382.4860852384</v>
+        <v>375306.1831576438</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.031602864965234e-06</v>
+        <v>4.857339906147817e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.30143229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>284378.2628519469</v>
+        <v>339487.4877826138</v>
       </c>
     </row>
   </sheetData>
@@ -5628,28 +5628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>430.9423622384498</v>
+        <v>488.4896006462396</v>
       </c>
       <c r="AB2" t="n">
-        <v>589.6343518498819</v>
+        <v>668.3730222443985</v>
       </c>
       <c r="AC2" t="n">
-        <v>533.3604768663389</v>
+        <v>604.5844390688208</v>
       </c>
       <c r="AD2" t="n">
-        <v>430942.3622384499</v>
+        <v>488489.6006462396</v>
       </c>
       <c r="AE2" t="n">
-        <v>589634.3518498819</v>
+        <v>668373.0222443985</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.28840923660394e-06</v>
+        <v>3.397928887219609e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.15690104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>533360.4768663389</v>
+        <v>604584.4390688208</v>
       </c>
     </row>
     <row r="3">
@@ -5734,28 +5734,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.4026756627523</v>
+        <v>299.4834884265962</v>
       </c>
       <c r="AB3" t="n">
-        <v>353.5579407632629</v>
+        <v>409.7665211443035</v>
       </c>
       <c r="AC3" t="n">
-        <v>319.8148671185027</v>
+        <v>370.6589794772149</v>
       </c>
       <c r="AD3" t="n">
-        <v>258402.6756627523</v>
+        <v>299483.4884265962</v>
       </c>
       <c r="AE3" t="n">
-        <v>353557.9407632629</v>
+        <v>409766.5211443035</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.091581568689103e-06</v>
+        <v>4.590513860638877e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.478515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>319814.8671185027</v>
+        <v>370658.9794772149</v>
       </c>
     </row>
     <row r="4">
@@ -5840,28 +5840,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>245.0341685856772</v>
+        <v>286.1149813495242</v>
       </c>
       <c r="AB4" t="n">
-        <v>335.2665596033429</v>
+        <v>391.4751399845458</v>
       </c>
       <c r="AC4" t="n">
-        <v>303.2691897044714</v>
+        <v>354.1133020632298</v>
       </c>
       <c r="AD4" t="n">
-        <v>245034.1685856772</v>
+        <v>286114.9813495242</v>
       </c>
       <c r="AE4" t="n">
-        <v>335266.5596033429</v>
+        <v>391475.1399845458</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.194378870020285e-06</v>
+        <v>4.743151734203751e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.13997395833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>303269.1897044714</v>
+        <v>354113.3020632297</v>
       </c>
     </row>
   </sheetData>
@@ -6137,28 +6137,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>512.7863833833499</v>
+        <v>579.4838401559311</v>
       </c>
       <c r="AB2" t="n">
-        <v>701.6169522837164</v>
+        <v>792.8753551240849</v>
       </c>
       <c r="AC2" t="n">
-        <v>634.6556150833349</v>
+        <v>717.2044440385914</v>
       </c>
       <c r="AD2" t="n">
-        <v>512786.3833833499</v>
+        <v>579483.8401559312</v>
       </c>
       <c r="AE2" t="n">
-        <v>701616.9522837164</v>
+        <v>792875.3551240849</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.064241671017487e-06</v>
+        <v>3.035348640279289e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.37434895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>634655.6150833349</v>
+        <v>717204.4440385915</v>
       </c>
     </row>
     <row r="3">
@@ -6243,28 +6243,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>290.2466607569147</v>
+        <v>340.3123566322233</v>
       </c>
       <c r="AB3" t="n">
-        <v>397.1282860265684</v>
+        <v>465.6303798657824</v>
       </c>
       <c r="AC3" t="n">
-        <v>359.2269197812421</v>
+        <v>421.1912699277339</v>
       </c>
       <c r="AD3" t="n">
-        <v>290246.6607569147</v>
+        <v>340312.3566322234</v>
       </c>
       <c r="AE3" t="n">
-        <v>397128.2860265684</v>
+        <v>465630.3798657824</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.903062279196762e-06</v>
+        <v>4.268786094925867e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.93424479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>359226.9197812421</v>
+        <v>421191.2699277339</v>
       </c>
     </row>
     <row r="4">
@@ -6349,28 +6349,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>251.6399627778168</v>
+        <v>293.3472420400329</v>
       </c>
       <c r="AB4" t="n">
-        <v>344.3048986440957</v>
+        <v>401.3706381261228</v>
       </c>
       <c r="AC4" t="n">
-        <v>311.444922352566</v>
+        <v>363.0643877505935</v>
       </c>
       <c r="AD4" t="n">
-        <v>251639.9627778168</v>
+        <v>293347.2420400329</v>
       </c>
       <c r="AE4" t="n">
-        <v>344304.8986440956</v>
+        <v>401370.6381261228</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.170318734737782e-06</v>
+        <v>4.661771339978323e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.01302083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>311444.922352566</v>
+        <v>363064.3877505935</v>
       </c>
     </row>
     <row r="5">
@@ -6455,28 +6455,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>252.5654785790213</v>
+        <v>294.2727578412374</v>
       </c>
       <c r="AB5" t="n">
-        <v>345.5712301941784</v>
+        <v>402.6369696762064</v>
       </c>
       <c r="AC5" t="n">
-        <v>312.5903969968169</v>
+        <v>364.2098623948445</v>
       </c>
       <c r="AD5" t="n">
-        <v>252565.4785790214</v>
+        <v>294272.7578412374</v>
       </c>
       <c r="AE5" t="n">
-        <v>345571.2301941785</v>
+        <v>402636.9696762064</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.169538708599756e-06</v>
+        <v>4.660624356410128e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.01302083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>312590.3969968169</v>
+        <v>364209.8623948445</v>
       </c>
     </row>
   </sheetData>
@@ -6752,28 +6752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>727.8805134652908</v>
+        <v>805.0332189942328</v>
       </c>
       <c r="AB2" t="n">
-        <v>995.9182303451271</v>
+        <v>1101.48196578697</v>
       </c>
       <c r="AC2" t="n">
-        <v>900.8691922210027</v>
+        <v>996.3580729119091</v>
       </c>
       <c r="AD2" t="n">
-        <v>727880.5134652909</v>
+        <v>805033.2189942328</v>
       </c>
       <c r="AE2" t="n">
-        <v>995918.2303451271</v>
+        <v>1101481.96578697</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.678494743624308e-06</v>
+        <v>2.42840004765811e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.251953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>900869.1922210027</v>
+        <v>996358.0729119091</v>
       </c>
     </row>
     <row r="3">
@@ -6858,28 +6858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>365.8247251054863</v>
+        <v>425.7280098546473</v>
       </c>
       <c r="AB3" t="n">
-        <v>500.5375279371622</v>
+        <v>582.4998448773716</v>
       </c>
       <c r="AC3" t="n">
-        <v>452.7669287796713</v>
+        <v>526.9068772259415</v>
       </c>
       <c r="AD3" t="n">
-        <v>365824.7251054863</v>
+        <v>425728.0098546473</v>
       </c>
       <c r="AE3" t="n">
-        <v>500537.5279371622</v>
+        <v>582499.8448773717</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.572939040983737e-06</v>
+        <v>3.722457465821423e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.90755208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>452766.9287796713</v>
+        <v>526906.8772259415</v>
       </c>
     </row>
     <row r="4">
@@ -6964,28 +6964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>297.606593133273</v>
+        <v>340.4313178288983</v>
       </c>
       <c r="AB4" t="n">
-        <v>407.1984702012023</v>
+        <v>465.7931478232708</v>
       </c>
       <c r="AC4" t="n">
-        <v>368.3360197118411</v>
+        <v>421.3385035398059</v>
       </c>
       <c r="AD4" t="n">
-        <v>297606.593133273</v>
+        <v>340431.3178288983</v>
       </c>
       <c r="AE4" t="n">
-        <v>407198.4702012023</v>
+        <v>465793.1478232708</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.919084466666395e-06</v>
+        <v>4.223251151007098e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.49479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>368336.0197118411</v>
+        <v>421338.5035398059</v>
       </c>
     </row>
     <row r="5">
@@ -7070,28 +7070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>261.2534902314999</v>
+        <v>312.5747797723317</v>
       </c>
       <c r="AB5" t="n">
-        <v>357.4585510252859</v>
+        <v>427.6786035105519</v>
       </c>
       <c r="AC5" t="n">
-        <v>323.3432086116592</v>
+        <v>386.861557842194</v>
       </c>
       <c r="AD5" t="n">
-        <v>261253.4902314999</v>
+        <v>312574.7797723318</v>
       </c>
       <c r="AE5" t="n">
-        <v>357458.5510252859</v>
+        <v>427678.6035105519</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.087075109636363e-06</v>
+        <v>4.466295394633099e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.925130208333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>323343.2086116592</v>
+        <v>386861.557842194</v>
       </c>
     </row>
     <row r="6">
@@ -7176,28 +7176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>260.3351982942025</v>
+        <v>303.2451743358484</v>
       </c>
       <c r="AB6" t="n">
-        <v>356.2021034844946</v>
+        <v>414.9134257592122</v>
       </c>
       <c r="AC6" t="n">
-        <v>322.2066746607257</v>
+        <v>375.3146707394027</v>
       </c>
       <c r="AD6" t="n">
-        <v>260335.1982942025</v>
+        <v>303245.1743358484</v>
       </c>
       <c r="AE6" t="n">
-        <v>356202.1034844946</v>
+        <v>414913.4257592122</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.096109900518782e-06</v>
+        <v>4.479366681685254e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>322206.6746607257</v>
+        <v>375314.6707394028</v>
       </c>
     </row>
   </sheetData>
@@ -7473,28 +7473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>358.0589470258956</v>
+        <v>406.6338919336403</v>
       </c>
       <c r="AB2" t="n">
-        <v>489.9120477667169</v>
+        <v>556.3744303648187</v>
       </c>
       <c r="AC2" t="n">
-        <v>443.1555295237383</v>
+        <v>503.274835607217</v>
       </c>
       <c r="AD2" t="n">
-        <v>358058.9470258956</v>
+        <v>406633.8919336402</v>
       </c>
       <c r="AE2" t="n">
-        <v>489912.0477667169</v>
+        <v>556374.4303648188</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.544769762044583e-06</v>
+        <v>3.821441597923379e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.02408854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>443155.5295237383</v>
+        <v>503274.835607217</v>
       </c>
     </row>
     <row r="3">
@@ -7579,28 +7579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>236.2913707179717</v>
+        <v>276.6851655379487</v>
       </c>
       <c r="AB3" t="n">
-        <v>323.304277855734</v>
+        <v>378.5728499770354</v>
       </c>
       <c r="AC3" t="n">
-        <v>292.4485713376826</v>
+        <v>342.4423885055584</v>
       </c>
       <c r="AD3" t="n">
-        <v>236291.3707179717</v>
+        <v>276685.1655379487</v>
       </c>
       <c r="AE3" t="n">
-        <v>323304.277855734</v>
+        <v>378572.8499770354</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.223877320372075e-06</v>
+        <v>4.841246969538523e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.27994791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>292448.5713376826</v>
+        <v>342442.3885055584</v>
       </c>
     </row>
     <row r="4">
@@ -7685,28 +7685,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>237.4087371649339</v>
+        <v>277.802531984911</v>
       </c>
       <c r="AB4" t="n">
-        <v>324.8331079231955</v>
+        <v>380.1016800444976</v>
       </c>
       <c r="AC4" t="n">
-        <v>293.8314920092325</v>
+        <v>343.8253091771085</v>
       </c>
       <c r="AD4" t="n">
-        <v>237408.7371649339</v>
+        <v>277802.531984911</v>
       </c>
       <c r="AE4" t="n">
-        <v>324833.1079231955</v>
+        <v>380101.6800444977</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.22092467881413e-06</v>
+        <v>4.836813033140197e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.28971354166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>293831.4920092325</v>
+        <v>343825.3091771085</v>
       </c>
     </row>
   </sheetData>
@@ -7982,28 +7982,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.0763413213778</v>
+        <v>303.0549010732714</v>
       </c>
       <c r="AB2" t="n">
-        <v>350.3749474866008</v>
+        <v>414.6530854870904</v>
       </c>
       <c r="AC2" t="n">
-        <v>316.9356542529115</v>
+        <v>375.0791769774624</v>
       </c>
       <c r="AD2" t="n">
-        <v>256076.3413213778</v>
+        <v>303054.9010732714</v>
       </c>
       <c r="AE2" t="n">
-        <v>350374.9474866008</v>
+        <v>414653.0854870904</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.019781324292664e-06</v>
+        <v>4.63157978846763e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.43229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>316935.6542529116</v>
+        <v>375079.1769774624</v>
       </c>
     </row>
     <row r="3">
@@ -8088,28 +8088,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>225.791604122983</v>
+        <v>272.8554152208968</v>
       </c>
       <c r="AB3" t="n">
-        <v>308.9380339834677</v>
+        <v>373.3328166365852</v>
       </c>
       <c r="AC3" t="n">
-        <v>279.4534216174309</v>
+        <v>337.7024565926879</v>
       </c>
       <c r="AD3" t="n">
-        <v>225791.604122983</v>
+        <v>272855.4152208968</v>
       </c>
       <c r="AE3" t="n">
-        <v>308938.0339834677</v>
+        <v>373332.8166365852</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.229881658062332e-06</v>
+        <v>4.953820492325823e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.69010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>279453.4216174309</v>
+        <v>337702.4565926879</v>
       </c>
     </row>
   </sheetData>
@@ -13990,28 +13990,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.4337028828967</v>
+        <v>272.2726712228557</v>
       </c>
       <c r="AB2" t="n">
-        <v>309.8165818341791</v>
+        <v>372.5354805896147</v>
       </c>
       <c r="AC2" t="n">
-        <v>280.2481220943204</v>
+        <v>336.9812171789719</v>
       </c>
       <c r="AD2" t="n">
-        <v>226433.7028828966</v>
+        <v>272272.6712228557</v>
       </c>
       <c r="AE2" t="n">
-        <v>309816.5818341791</v>
+        <v>372535.4805896147</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.181533165512986e-06</v>
+        <v>4.97108281420934e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.22395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>280248.1220943204</v>
+        <v>336981.2171789719</v>
       </c>
     </row>
     <row r="3">
@@ -14096,28 +14096,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>227.7812730459551</v>
+        <v>273.6202413859141</v>
       </c>
       <c r="AB3" t="n">
-        <v>311.6603867818746</v>
+        <v>374.3792855373111</v>
       </c>
       <c r="AC3" t="n">
-        <v>281.9159568856049</v>
+        <v>338.6490519702567</v>
       </c>
       <c r="AD3" t="n">
-        <v>227781.2730459551</v>
+        <v>273620.2413859142</v>
       </c>
       <c r="AE3" t="n">
-        <v>311660.3867818746</v>
+        <v>374379.2855373111</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.180765182749491e-06</v>
+        <v>4.96988285629012e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.22721354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>281915.9568856049</v>
+        <v>338649.0519702567</v>
       </c>
     </row>
   </sheetData>
@@ -14393,28 +14393,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.5986581042732</v>
+        <v>289.4703590178369</v>
       </c>
       <c r="AB2" t="n">
-        <v>326.4612102480056</v>
+        <v>396.0661157391464</v>
       </c>
       <c r="AC2" t="n">
-        <v>295.3042105332192</v>
+        <v>358.2661215352862</v>
       </c>
       <c r="AD2" t="n">
-        <v>238598.6581042732</v>
+        <v>289470.3590178369</v>
       </c>
       <c r="AE2" t="n">
-        <v>326461.2102480056</v>
+        <v>396066.1157391464</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.842587697352579e-06</v>
+        <v>4.632497326606747e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.48307291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>295304.2105332192</v>
+        <v>358266.1215352862</v>
       </c>
     </row>
   </sheetData>
@@ -14690,28 +14690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>467.8607550314419</v>
+        <v>534.15297929064</v>
       </c>
       <c r="AB2" t="n">
-        <v>640.1477255937942</v>
+        <v>730.8516714317548</v>
       </c>
       <c r="AC2" t="n">
-        <v>579.0529251160975</v>
+        <v>661.1002136670706</v>
       </c>
       <c r="AD2" t="n">
-        <v>467860.7550314419</v>
+        <v>534152.97929064</v>
       </c>
       <c r="AE2" t="n">
-        <v>640147.7255937943</v>
+        <v>730851.6714317547</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.168258446459781e-06</v>
+        <v>3.203343408576843e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.78515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>579052.9251160976</v>
+        <v>661100.2136670706</v>
       </c>
     </row>
     <row r="3">
@@ -14796,28 +14796,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>274.6338627233183</v>
+        <v>324.3316957040738</v>
       </c>
       <c r="AB3" t="n">
-        <v>375.7661669689647</v>
+        <v>443.7649345668857</v>
       </c>
       <c r="AC3" t="n">
-        <v>339.9035713845736</v>
+        <v>401.4126320398187</v>
       </c>
       <c r="AD3" t="n">
-        <v>274633.8627233183</v>
+        <v>324331.6957040738</v>
       </c>
       <c r="AE3" t="n">
-        <v>375766.1669689647</v>
+        <v>443764.9345668857</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.991818505854057e-06</v>
+        <v>4.420055231899949e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.71614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>339903.5713845736</v>
+        <v>401412.6320398187</v>
       </c>
     </row>
     <row r="4">
@@ -14902,28 +14902,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>248.7331074626427</v>
+        <v>290.1338343127312</v>
       </c>
       <c r="AB4" t="n">
-        <v>340.3276109604706</v>
+        <v>396.973911908085</v>
       </c>
       <c r="AC4" t="n">
-        <v>307.8472214233067</v>
+        <v>359.0872789119612</v>
       </c>
       <c r="AD4" t="n">
-        <v>248733.1074626427</v>
+        <v>290133.8343127312</v>
       </c>
       <c r="AE4" t="n">
-        <v>340327.6109604706</v>
+        <v>396973.911908085</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.181189065965882e-06</v>
+        <v>4.699827662397418e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>307847.2214233067</v>
+        <v>359087.2789119612</v>
       </c>
     </row>
     <row r="5">
@@ -15008,28 +15008,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>249.518209986222</v>
+        <v>290.9189368363105</v>
       </c>
       <c r="AB5" t="n">
-        <v>341.4018228695102</v>
+        <v>398.0481238171251</v>
       </c>
       <c r="AC5" t="n">
-        <v>308.8189120554137</v>
+        <v>360.0589695440684</v>
       </c>
       <c r="AD5" t="n">
-        <v>249518.209986222</v>
+        <v>290918.9368363105</v>
       </c>
       <c r="AE5" t="n">
-        <v>341401.8228695102</v>
+        <v>398048.1238171251</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.181582972487175e-06</v>
+        <v>4.700409612330849e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.07486979166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>308818.9120554137</v>
+        <v>360058.9695440684</v>
       </c>
     </row>
   </sheetData>
@@ -15305,28 +15305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>668.0356906865811</v>
+        <v>744.796536252941</v>
       </c>
       <c r="AB2" t="n">
-        <v>914.0359036520491</v>
+        <v>1019.063479005445</v>
       </c>
       <c r="AC2" t="n">
-        <v>826.8015998649447</v>
+        <v>921.8054908337407</v>
       </c>
       <c r="AD2" t="n">
-        <v>668035.6906865811</v>
+        <v>744796.536252941</v>
       </c>
       <c r="AE2" t="n">
-        <v>914035.9036520491</v>
+        <v>1019063.479005445</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.763722459883934e-06</v>
+        <v>2.561223108412083e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.51302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>826801.5998649447</v>
+        <v>921805.4908337407</v>
       </c>
     </row>
     <row r="3">
@@ -15411,28 +15411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>348.9821095675541</v>
+        <v>400.156006611794</v>
       </c>
       <c r="AB3" t="n">
-        <v>477.4927183144073</v>
+        <v>547.511101883338</v>
       </c>
       <c r="AC3" t="n">
-        <v>431.9214834437186</v>
+        <v>495.2574107562493</v>
       </c>
       <c r="AD3" t="n">
-        <v>348982.1095675541</v>
+        <v>400156.006611794</v>
       </c>
       <c r="AE3" t="n">
-        <v>477492.7183144073</v>
+        <v>547511.1018833381</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.646532641972615e-06</v>
+        <v>3.843212701522898e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.67317708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>431921.4834437186</v>
+        <v>495257.4107562493</v>
       </c>
     </row>
     <row r="4">
@@ -15517,28 +15517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>284.4840580980187</v>
+        <v>327.0437209555313</v>
       </c>
       <c r="AB4" t="n">
-        <v>389.24363884058</v>
+        <v>447.4756471620398</v>
       </c>
       <c r="AC4" t="n">
-        <v>352.0947722565126</v>
+        <v>404.7691994329091</v>
       </c>
       <c r="AD4" t="n">
-        <v>284484.0580980187</v>
+        <v>327043.7209555313</v>
       </c>
       <c r="AE4" t="n">
-        <v>389243.63884058</v>
+        <v>447475.6471620398</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.989958423868663e-06</v>
+        <v>4.341924981160439e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.33203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>352094.7722565126</v>
+        <v>404769.1994329091</v>
       </c>
     </row>
     <row r="5">
@@ -15623,28 +15623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>255.6833706751472</v>
+        <v>306.686586010247</v>
       </c>
       <c r="AB5" t="n">
-        <v>349.8372677117871</v>
+        <v>419.6221170364922</v>
       </c>
       <c r="AC5" t="n">
-        <v>316.4492898811676</v>
+        <v>379.5739711298689</v>
       </c>
       <c r="AD5" t="n">
-        <v>255683.3706751472</v>
+        <v>306686.586010247</v>
       </c>
       <c r="AE5" t="n">
-        <v>349837.2677117871</v>
+        <v>419622.1170364922</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.113606888585588e-06</v>
+        <v>4.52148345045243e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>316449.2898811676</v>
+        <v>379573.9711298689</v>
       </c>
     </row>
     <row r="6">
@@ -15729,28 +15729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>256.7286465516334</v>
+        <v>307.7318618867332</v>
       </c>
       <c r="AB6" t="n">
-        <v>351.2674602803119</v>
+        <v>421.0523096050178</v>
       </c>
       <c r="AC6" t="n">
-        <v>317.7429868782407</v>
+        <v>380.8676681269422</v>
       </c>
       <c r="AD6" t="n">
-        <v>256728.6465516334</v>
+        <v>307731.8618867332</v>
       </c>
       <c r="AE6" t="n">
-        <v>351267.4602803119</v>
+        <v>421052.3096050178</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.111044717789459e-06</v>
+        <v>4.517762745409541e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.928385416666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>317742.9868782407</v>
+        <v>380867.6681269422</v>
       </c>
     </row>
   </sheetData>
@@ -16026,28 +16026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>267.8064863779254</v>
+        <v>324.6465467939938</v>
       </c>
       <c r="AB2" t="n">
-        <v>366.4246494506118</v>
+        <v>444.1957277183639</v>
       </c>
       <c r="AC2" t="n">
-        <v>331.4535951872701</v>
+        <v>401.8023108975419</v>
       </c>
       <c r="AD2" t="n">
-        <v>267806.4863779254</v>
+        <v>324646.5467939937</v>
       </c>
       <c r="AE2" t="n">
-        <v>366424.6494506117</v>
+        <v>444195.7277183639</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.477714967930088e-06</v>
+        <v>4.130203231655817e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.01888020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>331453.5951872701</v>
+        <v>401802.3108975419</v>
       </c>
     </row>
   </sheetData>
@@ -16323,28 +16323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.089985799256</v>
+        <v>339.5170909208239</v>
       </c>
       <c r="AB2" t="n">
-        <v>388.7044517361701</v>
+        <v>464.5422622347986</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.6070444125937</v>
+        <v>420.2070007162687</v>
       </c>
       <c r="AD2" t="n">
-        <v>284089.985799256</v>
+        <v>339517.0909208239</v>
       </c>
       <c r="AE2" t="n">
-        <v>388704.4517361702</v>
+        <v>464542.2622347986</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.842303907708066e-06</v>
+        <v>4.325721138086774e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.96940104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>351607.0444125937</v>
+        <v>420207.0007162687</v>
       </c>
     </row>
     <row r="3">
@@ -16429,28 +16429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>229.3406973809212</v>
+        <v>269.138743114575</v>
       </c>
       <c r="AB3" t="n">
-        <v>313.7940599539202</v>
+        <v>368.2475018927147</v>
       </c>
       <c r="AC3" t="n">
-        <v>283.8459952847403</v>
+        <v>333.1024771506882</v>
       </c>
       <c r="AD3" t="n">
-        <v>229340.6973809212</v>
+        <v>269138.743114575</v>
       </c>
       <c r="AE3" t="n">
-        <v>313794.0599539203</v>
+        <v>368247.5018927147</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.232028546325633e-06</v>
+        <v>4.918845646247002e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.52734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>283845.9952847403</v>
+        <v>333102.4771506882</v>
       </c>
     </row>
   </sheetData>
@@ -16726,28 +16726,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>390.1895933649234</v>
+        <v>447.3531414361418</v>
       </c>
       <c r="AB2" t="n">
-        <v>533.8746155918489</v>
+        <v>612.0883039406455</v>
       </c>
       <c r="AC2" t="n">
-        <v>482.922371577491</v>
+        <v>553.6714552838795</v>
       </c>
       <c r="AD2" t="n">
-        <v>390189.5933649234</v>
+        <v>447353.1414361417</v>
       </c>
       <c r="AE2" t="n">
-        <v>533874.6155918489</v>
+        <v>612088.3039406454</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.408701335703863e-06</v>
+        <v>3.595975982775812e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.60026041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>482922.3715774911</v>
+        <v>553671.4552838795</v>
       </c>
     </row>
     <row r="3">
@@ -16832,28 +16832,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>244.6453571982843</v>
+        <v>285.3912116174227</v>
       </c>
       <c r="AB3" t="n">
-        <v>334.7345707099644</v>
+        <v>390.4848463066173</v>
       </c>
       <c r="AC3" t="n">
-        <v>302.7879730844256</v>
+        <v>353.2175206240369</v>
       </c>
       <c r="AD3" t="n">
-        <v>244645.3571982843</v>
+        <v>285391.2116174227</v>
       </c>
       <c r="AE3" t="n">
-        <v>334734.5707099644</v>
+        <v>390484.8463066173</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.176752856107722e-06</v>
+        <v>4.742608311146092e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>302787.9730844256</v>
+        <v>353217.5206240369</v>
       </c>
     </row>
     <row r="4">
@@ -16938,28 +16938,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>241.0734262255861</v>
+        <v>281.8192806447244</v>
       </c>
       <c r="AB4" t="n">
-        <v>329.8472971706482</v>
+        <v>385.5975727672988</v>
       </c>
       <c r="AC4" t="n">
-        <v>298.3671340723689</v>
+        <v>348.7966816119794</v>
       </c>
       <c r="AD4" t="n">
-        <v>241073.4262255861</v>
+        <v>281819.2806447244</v>
       </c>
       <c r="AE4" t="n">
-        <v>329847.2971706482</v>
+        <v>385597.5727672988</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.21146761760901e-06</v>
+        <v>4.794434349831766e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.19856770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>298367.1340723688</v>
+        <v>348796.6816119794</v>
       </c>
     </row>
   </sheetData>
